--- a/Data/DASL-HeliumFootball.xlsx
+++ b/Data/DASL-HeliumFootball.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drp36\OneDrive - BYU-Idaho 1\221\Course_Files\BYUI_M221_Book\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="8400" windowHeight="2400"/>
   </bookViews>
@@ -11,16 +16,75 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Two identical footballs, one air-filled and one helium-filled, were used</t>
+  </si>
+  <si>
+    <t>outdoors on a windless day at The Ohio State University's athletic</t>
+  </si>
+  <si>
+    <t>complex. Each football was kicked 39 times and the two footballs were</t>
+  </si>
+  <si>
+    <t>alternated with each kick. The experimenter recorded the distance</t>
+  </si>
+  <si>
+    <t>traveled by each ball.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>The kicker was a novice punter and was not informed which football</t>
+  </si>
+  <si>
+    <t>contained the helium. The kicker alternated footballs after each kick so</t>
+  </si>
+  <si>
+    <t>Variables:</t>
+  </si>
+  <si>
+    <t>Trial: Trial Number</t>
+  </si>
+  <si>
+    <t>Helium: distance in yards for helium-filled football</t>
+  </si>
+  <si>
+    <t>Air: distance in yards for air-filled football</t>
+  </si>
+  <si>
+    <t>Lafferty, M. B. (1993), "OSU scientists get a kick out of sports</t>
+  </si>
+  <si>
+    <t>controversy, "The Columbus Dispatch  (November, 21, 1993), B7.</t>
+  </si>
+  <si>
+    <t>that his leg would play no favorites if he tired or improved with practice.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,19 +113,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -108,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,657 +418,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" s="0" outlineLevel="0">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Trial</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Helium</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Air</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="0" outlineLevel="0">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Two identical footballs, one air-filled and one helium-filled, were used</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="0" outlineLevel="0">
-      <c r="A3" t="n">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>outdoors on a windless day at The Ohio State University's athletic</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="0" outlineLevel="0">
-      <c r="A4" t="n">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>complex. Each football was kicked 39 times and the two footballs were</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="0" outlineLevel="0">
-      <c r="A5" t="n">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>alternated with each kick. The experimenter recorded the distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="0" outlineLevel="0">
-      <c r="A6" t="n">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>35</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>traveled by each ball.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="0" outlineLevel="0">
-      <c r="A7" t="n">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="0" outlineLevel="0">
-      <c r="A8" t="n">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>25</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The kicker was a novice punter and was not informed which football</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="0" outlineLevel="0">
-      <c r="A9" t="n">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>26</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>24</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>contained the helium. The kicker alternated footballs after each kick so</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="0" outlineLevel="0">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>24</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>that his leg would play no favorites if he tired or improved with</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="0" outlineLevel="0">
-      <c r="A11" t="n">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>28</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>tired or improved with practice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="0" outlineLevel="0">
-      <c r="A12" t="n">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="0" outlineLevel="0">
-      <c r="A13" t="n">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>28</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Variables:</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="0" outlineLevel="0">
-      <c r="A14" t="n">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Trial: Trial Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="0" outlineLevel="0">
-      <c r="A15" t="n">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>31</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>25</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Helium: distance in yards for helium-filled football</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="0" outlineLevel="0">
-      <c r="A16" t="n">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>22</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>34</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Air: distance in yards for air-filled football</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="0" outlineLevel="0">
-      <c r="A17" t="n">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>29</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>26</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="0" outlineLevel="0">
-      <c r="A18" t="n">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>23</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Lafferty, M. B. (1993), "OSU scientists get a kick out of sports</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="0" outlineLevel="0">
-      <c r="A19" t="n">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>22</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>controversy, "The Columbus Dispatch  (November, 21, 1993), B7.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="0" outlineLevel="0">
-      <c r="A20" t="n">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>35</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>33</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="0" outlineLevel="0">
-      <c r="A21" t="n">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>24</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>29</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="0" outlineLevel="0">
-      <c r="A22" t="n">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>31</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>31</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="0" outlineLevel="0">
-      <c r="A23" t="n">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>34</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>27</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="0" outlineLevel="0">
-      <c r="A24" t="n">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>39</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="0" outlineLevel="0">
-      <c r="A25" t="n">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>29</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="0" outlineLevel="0">
-      <c r="A26" t="n">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>28</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="0" outlineLevel="0">
-      <c r="A27" t="n">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>28</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>29</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="0" outlineLevel="0">
-      <c r="A28" t="n">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>30</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>22</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="0" outlineLevel="0">
-      <c r="A29" t="n">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>31</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="0" outlineLevel="0">
-      <c r="A30" t="n">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>33</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>25</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="0" outlineLevel="0">
-      <c r="A31" t="n">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>11</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="0" outlineLevel="0">
-      <c r="A32" t="n">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>26</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>27</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="0" outlineLevel="0">
-      <c r="A33" t="n">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>26</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="0" outlineLevel="0">
-      <c r="A34" t="n">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>28</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="0" outlineLevel="0">
-      <c r="A35" t="n">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>29</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>32</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="0" outlineLevel="0">
-      <c r="A36" t="n">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>28</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="0" outlineLevel="0">
-      <c r="A37" t="n">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>29</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>25</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="0" outlineLevel="0">
-      <c r="A38" t="n">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>31</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="0" outlineLevel="0">
-      <c r="A39" t="n">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>30</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="0" outlineLevel="0">
-      <c r="A40" t="n">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>26</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>28</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1008,22 +990,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
